--- a/Indicatoren overzicht.xlsx
+++ b/Indicatoren overzicht.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vrln.sharepoint.com/sites/GGD-ONDZ/PSchijf/Gezondheidsmonitor/2022 Gezondheidsmonitor volwassenen en ouderen/5. Eindproducten/Rapportage concept/Test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="8_{C52811AC-DC11-46F3-A790-C5C8DD7C8C21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{24BAD0F6-DB13-4B43-9F50-4A03E9A9306C}"/>
+  <xr:revisionPtr revIDLastSave="56" documentId="8_{C52811AC-DC11-46F3-A790-C5C8DD7C8C21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{95E328C1-A7F2-465C-A781-95B30145005C}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{A66E39A1-F740-4BF0-A7D7-3D3D64DB8620}"/>
+    <workbookView xWindow="-4890" yWindow="-21720" windowWidth="38640" windowHeight="21240" xr2:uid="{A66E39A1-F740-4BF0-A7D7-3D3D64DB8620}"/>
   </bookViews>
   <sheets>
     <sheet name="indicatoren uit kapstok" sheetId="3" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="291">
   <si>
     <t>omschrijving</t>
   </si>
@@ -297,9 +297,6 @@
     <t>LFICA201</t>
   </si>
   <si>
-    <t>Top 3?</t>
-  </si>
-  <si>
     <t>Positieve invloed corona: Meer rust</t>
   </si>
   <si>
@@ -585,9 +582,6 @@
     <t xml:space="preserve">Kernindicator wekelijkse sporter: % wekelijkse sporter </t>
   </si>
   <si>
-    <t>KIsporter</t>
-  </si>
-  <si>
     <t>Drinker (in afgelopen 12 maanden)</t>
   </si>
   <si>
@@ -913,6 +907,12 @@
   </si>
   <si>
     <t>weeg2022</t>
+  </si>
+  <si>
+    <t>KIsporter_100</t>
+  </si>
+  <si>
+    <t>Top 3</t>
   </si>
 </sst>
 </file>
@@ -969,18 +969,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -998,7 +992,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1010,15 +1004,25 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -1338,14 +1342,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49BE1902-5125-4307-BBEF-8C1A2A14B30B}">
   <dimension ref="A1:H351"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C91" sqref="A1:F132"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="108.77734375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="108.77734375" style="11" customWidth="1"/>
     <col min="2" max="2" width="24.44140625" style="8" customWidth="1"/>
     <col min="3" max="3" width="60.44140625" style="8" customWidth="1"/>
     <col min="4" max="5" width="30.5546875" style="8" customWidth="1"/>
@@ -1356,3173 +1360,3173 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="F1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1"/>
+      <c r="H1" s="14"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="15" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="15" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="15" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>278</v>
+      <c r="E4" s="11" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="15" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>278</v>
+      <c r="E5" s="11" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="15" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>278</v>
+      <c r="E6" s="11" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="15" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>278</v>
+      <c r="E7" s="11" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="15" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>278</v>
+      <c r="E8" s="11" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="15" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>278</v>
+      <c r="E9" s="11" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="15" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>278</v>
+      <c r="E10" s="11" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="15" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>278</v>
+      <c r="E11" s="11" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="15" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>278</v>
+      <c r="E12" s="11" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="15" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>278</v>
+      <c r="E13" s="11" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="15" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>278</v>
+      <c r="E14" s="11" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="15" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>278</v>
+      <c r="E15" s="11" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="15" t="s">
         <v>7</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>278</v>
+      <c r="E16" s="11" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="15" t="s">
         <v>7</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>278</v>
+      <c r="E17" s="11" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="15" t="s">
         <v>7</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>278</v>
+      <c r="E18" s="11" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="15" t="s">
         <v>7</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>278</v>
+      <c r="E19" s="11" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="15" t="s">
         <v>7</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>278</v>
+      <c r="E20" s="11" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="15" t="s">
         <v>7</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>278</v>
+      <c r="E21" s="11" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="15" t="s">
         <v>7</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>278</v>
+      <c r="E22" s="11" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="15" t="s">
         <v>7</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>278</v>
+      <c r="E23" s="11" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="15" t="s">
         <v>7</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>278</v>
+      <c r="E24" s="11" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="15" t="s">
         <v>7</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>278</v>
+      <c r="E25" s="11" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="15" t="s">
         <v>7</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>278</v>
+      <c r="E26" s="11" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="15" t="s">
         <v>7</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>278</v>
+      <c r="E27" s="11" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="15" t="s">
         <v>7</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>278</v>
+      <c r="E28" s="11" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="15" t="s">
         <v>7</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>278</v>
+      <c r="E29" s="11" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="15" t="s">
         <v>7</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>278</v>
+      <c r="E30" s="11" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="15" t="s">
         <v>7</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>278</v>
+      <c r="E31" s="11" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="15" t="s">
         <v>7</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E32" s="2" t="s">
-        <v>278</v>
+      <c r="E32" s="11" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="15" t="s">
         <v>7</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>278</v>
+      <c r="E33" s="11" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="15" t="s">
         <v>7</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E34" s="2" t="s">
-        <v>278</v>
+      <c r="E34" s="11" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="15" t="s">
         <v>7</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E35" s="2" t="s">
-        <v>278</v>
+      <c r="E35" s="11" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="15" t="s">
         <v>7</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E36" s="2" t="s">
-        <v>278</v>
+      <c r="E36" s="11" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="12" t="s">
         <v>77</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="15" t="s">
         <v>7</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>278</v>
+      <c r="E37" s="11" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C38" s="15" t="s">
         <v>7</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E38" s="2" t="s">
-        <v>278</v>
+      <c r="E38" s="11" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="15" t="s">
         <v>7</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E39" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="F39" s="10" t="s">
-        <v>251</v>
+      <c r="E39" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="11" t="s">
         <v>83</v>
       </c>
       <c r="B40" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="15" t="s">
         <v>7</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E40" s="2" t="s">
-        <v>278</v>
+      <c r="E40" s="11" t="s">
+        <v>276</v>
       </c>
       <c r="F40" s="8" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="11" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
+      <c r="B41" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="C41" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="C41" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
+      <c r="B42" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="C42" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="C42" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
+      <c r="B43" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="C43" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="C43" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
+      <c r="B44" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="C44" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="C44" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
+      <c r="B45" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="C45" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C45" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
+      <c r="B46" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="C46" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="C46" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
+      <c r="B47" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="C47" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="C47" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="3" t="s">
+      <c r="B48" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="C48" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="C48" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="3" t="s">
+      <c r="B49" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="C49" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="C49" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="3" t="s">
+      <c r="B50" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="C50" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="C50" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="F50" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="3" t="s">
+      <c r="B51" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="C51" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C51" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="2" t="s">
+      <c r="B52" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="C52" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="C52" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="2" t="s">
+      <c r="B53" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="C53" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="C53" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="2" t="s">
+      <c r="B54" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="B54" s="8" t="s">
+      <c r="C54" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" s="11" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="C54" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="2" t="s">
+      <c r="B55" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="B55" s="8" t="s">
+      <c r="C55" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" s="11" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="C55" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="2" t="s">
+      <c r="B56" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="B56" s="8" t="s">
+      <c r="C56" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="C56" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="2" t="s">
+      <c r="B57" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="B57" s="8" t="s">
+      <c r="C57" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" s="11" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="C57" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="2" t="s">
+      <c r="B58" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="B58" s="8" t="s">
+      <c r="C58" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="11" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C58" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D58" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="2" t="s">
+      <c r="B59" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="B59" s="8" t="s">
+      <c r="C59" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" s="11" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="C59" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D59" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="2" t="s">
+      <c r="B60" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="B60" s="8" t="s">
+      <c r="C60" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60" s="11" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="C60" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D60" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="2" t="s">
+      <c r="B61" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="B61" s="8" t="s">
+      <c r="C61" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E61" s="11" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="C61" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D61" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="2" t="s">
+      <c r="B62" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="B62" s="8" t="s">
+      <c r="C62" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" s="11" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="C62" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D62" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="2" t="s">
+      <c r="B63" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="C63" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E63" s="11" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="C63" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D63" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="2" t="s">
+      <c r="B64" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="B64" s="8" t="s">
+      <c r="C64" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64" s="11" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="C64" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D64" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="3" t="s">
+      <c r="B65" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="B65" s="9" t="s">
+      <c r="C65" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E65" s="11" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C65" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D65" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="3" t="s">
+      <c r="B66" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="B66" s="9" t="s">
+      <c r="C66" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E66" s="11" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="C66" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D66" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67" s="3" t="s">
+      <c r="B67" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="C67" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E67" s="11" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="C67" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D67" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" s="3" t="s">
+      <c r="B68" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="B68" s="9" t="s">
+      <c r="C68" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E68" s="11" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="C68" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D68" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="9" t="s">
+      <c r="B69" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="B69" s="9" t="s">
+      <c r="C69" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E69" s="11" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="C69" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D69" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70" s="9" t="s">
+      <c r="B70" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="B70" s="9" t="s">
+      <c r="C70" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E70" s="11" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="C70" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D70" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A71" s="3" t="s">
+      <c r="B71" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="B71" s="8" t="s">
+      <c r="C71" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E71" s="11" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="C71" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D71" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="3" t="s">
+      <c r="B72" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="B72" s="8" t="s">
+      <c r="C72" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E72" s="11" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="C72" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D72" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="3" t="s">
+      <c r="B73" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="B73" s="8" t="s">
+      <c r="C73" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E73" s="11" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="C73" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D73" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="2" t="s">
+      <c r="B74" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="B74" s="8" t="s">
+      <c r="C74" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E74" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="G74" s="11"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="C74" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D74" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="G74" s="2"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="2" t="s">
+      <c r="B75" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="B75" s="8" t="s">
+      <c r="C75" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E75" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="G75" s="11"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="C75" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D75" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="G75" s="2"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="2" t="s">
+      <c r="B76" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="B76" s="8" t="s">
+      <c r="C76" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E76" s="11" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="C76" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D76" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="2" t="s">
+      <c r="B77" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="B77" s="8" t="s">
+      <c r="C77" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E77" s="11" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="C77" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D77" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="2" t="s">
+      <c r="B78" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="B78" s="8" t="s">
+      <c r="C78" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E78" s="11" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="C78" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D78" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A79" s="2" t="s">
+      <c r="B79" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="B79" s="8" t="s">
+      <c r="C79" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E79" s="11" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="C79" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D79" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A80" s="2" t="s">
+      <c r="B80" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="B80" s="8" t="s">
+      <c r="C80" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D80" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E80" s="11" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="C80" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D80" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="9" t="s">
+      <c r="B81" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="C81" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" s="11" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="C81" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D81" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="9" t="s">
+      <c r="B82" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="C82" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D82" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E82" s="11" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="C82" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D82" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="9" t="s">
+      <c r="B83" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="C83" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D83" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E83" s="11" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="C83" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D83" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="2" t="s">
+      <c r="B84" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="B84" s="9" t="s">
+      <c r="C84" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D84" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E84" s="8" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="C84" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D84" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E84" s="8" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" s="2" t="s">
+      <c r="B85" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="B85" s="9" t="s">
+      <c r="C85" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D85" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E85" s="8" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="C85" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D85" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E85" s="8" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86" s="2" t="s">
+      <c r="B86" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="B86" s="9" t="s">
+      <c r="C86" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D86" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E86" s="8" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="C86" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D86" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E86" s="8" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" s="2" t="s">
+      <c r="B87" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="C87" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D87" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E87" s="8" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="C87" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D87" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E87" s="8" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" s="2" t="s">
+      <c r="B88" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="C88" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D88" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E88" s="8" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B89" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="C88" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D88" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E88" s="8" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A89" s="2" t="s">
+      <c r="C89" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D89" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E89" s="8" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="B89" s="9" t="s">
+      <c r="B90" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="C89" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D89" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E89" s="8" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90" s="3" t="s">
+      <c r="C90" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D90" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E90" s="8" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B91" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="C90" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D90" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E90" s="8" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91" s="3" t="s">
+      <c r="C91" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D91" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E91" s="8" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="B92" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="C91" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D91" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E91" s="8" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92" s="3" t="s">
+      <c r="C92" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D92" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E92" s="8" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B93" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="C92" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D92" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E92" s="8" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A93" s="3" t="s">
+      <c r="C93" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D93" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E93" s="8" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="B93" s="9" t="s">
+      <c r="B94" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="C93" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D93" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E93" s="8" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A94" s="5" t="s">
+      <c r="C94" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D94" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E94" s="8" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="B95" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="C94" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D94" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E94" s="8" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A95" s="3" t="s">
+      <c r="C95" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D95" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E95" s="8" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="B96" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="C95" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D95" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E95" s="8" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A96" s="3" t="s">
+      <c r="C96" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D96" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E96" s="8" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="B97" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="C96" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D96" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E96" s="8" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A97" s="3" t="s">
+      <c r="C97" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D97" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E97" s="8" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="B98" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="C97" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D97" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E97" s="8" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A98" s="3" t="s">
+      <c r="C98" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D98" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E98" s="8" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="B99" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="C98" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D98" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E98" s="8" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A99" s="3" t="s">
+      <c r="C99" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D99" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E99" s="8" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="B99" s="3" t="s">
+      <c r="B100" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="C99" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D99" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E99" s="8" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A100" s="3" t="s">
+      <c r="C100" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D100" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E100" s="8" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="B101" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="C100" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D100" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E100" s="8" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A101" s="2" t="s">
+      <c r="C101" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D101" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E101" s="8" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="B101" s="3" t="s">
+      <c r="B102" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="C101" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D101" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E101" s="8" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A102" s="3" t="s">
+      <c r="C102" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D102" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E102" s="8" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="B102" s="9" t="s">
+      <c r="B103" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="C102" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D102" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E102" s="8" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A103" s="3" t="s">
+      <c r="C103" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D103" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E103" s="8" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="B103" s="8" t="s">
+      <c r="B104" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="C103" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D103" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E103" s="8" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A104" s="3" t="s">
+      <c r="C104" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D104" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E104" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="F104" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="B104" s="8" t="s">
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A105" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="C104" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D104" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E104" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="F104" s="8" t="s">
+      <c r="B105" s="8" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A105" s="3" t="s">
+      <c r="C105" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D105" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E105" s="8" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="B105" s="8" t="s">
+      <c r="B106" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="C105" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D105" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E105" s="8" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A106" s="3" t="s">
+      <c r="C106" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D106" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E106" s="8" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="B106" s="8" t="s">
+      <c r="B107" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="C106" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D106" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E106" s="8" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A107" s="3" t="s">
+      <c r="C107" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D107" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E107" s="8" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A108" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="B107" s="8" t="s">
+      <c r="B108" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="C107" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D107" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E107" s="8" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A108" s="3" t="s">
+      <c r="C108" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D108" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E108" s="8" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="B108" s="8" t="s">
+      <c r="B109" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="C108" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D108" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E108" s="8" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A109" s="3" t="s">
+      <c r="C109" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D109" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E109" s="8" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="B109" s="8" t="s">
+      <c r="B110" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="C109" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D109" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E109" s="8" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A110" s="3" t="s">
+      <c r="C110" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D110" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E110" s="8" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A111" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="B110" s="8" t="s">
+      <c r="B111" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="C110" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D110" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E110" s="8" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A111" s="3" t="s">
+      <c r="C111" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D111" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E111" s="8" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="B111" s="8" t="s">
+      <c r="B112" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="C111" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D111" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E111" s="8" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A112" s="3" t="s">
+      <c r="C112" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D112" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E112" s="8" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A113" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="B112" s="8" t="s">
+      <c r="B113" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="C112" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D112" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E112" s="8" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A113" s="3" t="s">
+      <c r="C113" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D113" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E113" s="8" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A114" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="B113" s="8" t="s">
+      <c r="B114" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="C113" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D113" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E113" s="8" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A114" s="3" t="s">
+      <c r="C114" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D114" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E114" s="8" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A115" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="B114" s="8" t="s">
+      <c r="B115" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="C114" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D114" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E114" s="8" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A115" s="5" t="s">
+      <c r="C115" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D115" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E115" s="8" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A116" s="17" t="s">
         <v>235</v>
       </c>
-      <c r="B115" s="8" t="s">
+      <c r="B116" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="C115" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D115" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E115" s="8" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A116" s="5" t="s">
+      <c r="C116" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D116" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E116" s="8" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A117" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="B116" s="8" t="s">
+      <c r="B117" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="C116" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D116" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E116" s="8" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A117" s="3" t="s">
+      <c r="C117" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D117" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E117" s="8" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A118" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="B117" s="9" t="s">
+      <c r="B118" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="C117" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D117" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E117" s="8" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A118" s="3" t="s">
+      <c r="C118" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D118" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E118" s="8" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A119" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="B118" s="9" t="s">
+      <c r="B119" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="C118" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D118" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E118" s="8" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A119" s="3" t="s">
+      <c r="C119" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D119" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E119" s="8" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A120" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="B119" s="9" t="s">
+      <c r="B120" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="C119" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D119" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E119" s="8" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A120" s="2" t="s">
+      <c r="C120" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D120" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E120" s="8" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A121" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="B120" s="9" t="s">
+      <c r="B121" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="C120" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D120" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E120" s="8" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A121" s="2" t="s">
+      <c r="C121" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D121" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E121" s="8" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A122" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="B121" s="2" t="s">
+      <c r="B122" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="C121" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D121" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E121" s="8" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A122" s="2" t="s">
+      <c r="C122" s="15"/>
+      <c r="D122" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E122" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="F122" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="B122" s="2" t="s">
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A123" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="C122" s="9"/>
-      <c r="D122" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E122" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="F122" s="10" t="s">
+      <c r="B123" s="11" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A123" s="2" t="s">
+      <c r="C123" s="15"/>
+      <c r="D123" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E123" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="F123" s="8" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A124" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="B123" s="2" t="s">
+      <c r="B124" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="C123" s="9"/>
-      <c r="D123" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E123" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="F123" s="10" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A124" s="2" t="s">
+      <c r="C124" s="15"/>
+      <c r="D124" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E124" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="F124" s="8" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A125" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="B124" s="2" t="s">
+      <c r="B125" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="C124" s="9"/>
-      <c r="D124" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E124" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="F124" s="10" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A125" s="2" t="s">
+      <c r="C125" s="15"/>
+      <c r="D125" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E125" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="F125" s="8" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A126" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="B125" s="2" t="s">
+      <c r="B126" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="C125" s="9"/>
-      <c r="D125" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E125" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="F125" s="10" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A126" s="2" t="s">
+      <c r="C126" s="15"/>
+      <c r="D126" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E126" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="F126" s="8" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A127" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="B126" s="2" t="s">
+      <c r="B127" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="C126" s="9"/>
-      <c r="D126" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E126" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="F126" s="10" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A127" s="2" t="s">
+      <c r="C127" s="15"/>
+      <c r="D127" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E127" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="F127" s="8" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A128" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="B127" s="2" t="s">
+      <c r="B128" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="C127" s="9"/>
-      <c r="D127" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E127" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="F127" s="10" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A128" s="2" t="s">
+      <c r="C128" s="15"/>
+      <c r="D128" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E128" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="F128" s="8" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A129" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="B128" s="2" t="s">
+      <c r="B129" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="C128" s="9"/>
-      <c r="D128" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E128" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="F128" s="10" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A129" s="2" t="s">
+      <c r="C129" s="15"/>
+      <c r="D129" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E129" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="F129" s="8" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A130" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="B129" s="2" t="s">
+      <c r="B130" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="C130" s="15"/>
+      <c r="D130" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E130" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="F130" s="8" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A131" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C129" s="9"/>
-      <c r="D129" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E129" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="F129" s="10" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A130" s="2" t="s">
+      <c r="B131" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="C131" s="15"/>
+      <c r="D131" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E131" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="F131" s="8" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A132" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="B130" s="2" t="s">
+      <c r="B132" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="C130" s="9"/>
-      <c r="D130" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E130" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="F130" s="10" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A131" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="C131" s="9"/>
-      <c r="D131" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E131" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="F131" s="10" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A132" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="C132" s="9"/>
+      <c r="C132" s="15"/>
       <c r="D132" s="8" t="s">
         <v>8</v>
       </c>
       <c r="E132" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="F132" s="10" t="s">
-        <v>251</v>
+        <v>271</v>
+      </c>
+      <c r="F132" s="8" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C133" s="9"/>
+      <c r="C133" s="15"/>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B134" s="9"/>
-      <c r="C134" s="9"/>
+      <c r="B134" s="15"/>
+      <c r="C134" s="15"/>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B135" s="9"/>
-      <c r="C135" s="9"/>
+      <c r="B135" s="15"/>
+      <c r="C135" s="15"/>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B136" s="9"/>
-      <c r="C136" s="9"/>
+      <c r="B136" s="15"/>
+      <c r="C136" s="15"/>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B137" s="9"/>
-      <c r="C137" s="9"/>
+      <c r="B137" s="15"/>
+      <c r="C137" s="15"/>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B138" s="9"/>
-      <c r="C138" s="9"/>
+      <c r="B138" s="15"/>
+      <c r="C138" s="15"/>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B139" s="9"/>
-      <c r="C139" s="9"/>
+      <c r="B139" s="15"/>
+      <c r="C139" s="15"/>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B140" s="9"/>
-      <c r="C140" s="9"/>
-      <c r="E140" s="2"/>
+      <c r="B140" s="15"/>
+      <c r="C140" s="15"/>
+      <c r="E140" s="11"/>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B141" s="9"/>
-      <c r="C141" s="9"/>
-      <c r="E141" s="2"/>
+      <c r="B141" s="15"/>
+      <c r="C141" s="15"/>
+      <c r="E141" s="11"/>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B142" s="9"/>
-      <c r="C142" s="9"/>
-      <c r="E142" s="2"/>
+      <c r="B142" s="15"/>
+      <c r="C142" s="15"/>
+      <c r="E142" s="11"/>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A143" s="3"/>
-      <c r="B143" s="9"/>
-      <c r="C143" s="9"/>
+      <c r="A143" s="12"/>
+      <c r="B143" s="15"/>
+      <c r="C143" s="15"/>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A144" s="3"/>
-      <c r="B144" s="9"/>
-      <c r="C144" s="9"/>
+      <c r="A144" s="12"/>
+      <c r="B144" s="15"/>
+      <c r="C144" s="15"/>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A145" s="3"/>
-      <c r="B145" s="9"/>
-      <c r="C145" s="9"/>
+      <c r="A145" s="12"/>
+      <c r="B145" s="15"/>
+      <c r="C145" s="15"/>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A146" s="3"/>
-      <c r="B146" s="9"/>
-      <c r="C146" s="9"/>
+      <c r="A146" s="12"/>
+      <c r="B146" s="15"/>
+      <c r="C146" s="15"/>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A147" s="3"/>
-      <c r="B147" s="9"/>
-      <c r="C147" s="9"/>
+      <c r="A147" s="12"/>
+      <c r="B147" s="15"/>
+      <c r="C147" s="15"/>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A148" s="3"/>
-      <c r="B148" s="9"/>
-      <c r="C148" s="9"/>
+      <c r="A148" s="12"/>
+      <c r="B148" s="15"/>
+      <c r="C148" s="15"/>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A149" s="3"/>
-      <c r="B149" s="9"/>
-      <c r="C149" s="9"/>
+      <c r="A149" s="12"/>
+      <c r="B149" s="15"/>
+      <c r="C149" s="15"/>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A150" s="3"/>
-      <c r="B150" s="9"/>
-      <c r="C150" s="9"/>
+      <c r="A150" s="12"/>
+      <c r="B150" s="15"/>
+      <c r="C150" s="15"/>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A151" s="3"/>
-      <c r="B151" s="9"/>
-      <c r="C151" s="9"/>
+      <c r="A151" s="12"/>
+      <c r="B151" s="15"/>
+      <c r="C151" s="15"/>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A152" s="3"/>
-      <c r="B152" s="9"/>
-      <c r="C152" s="9"/>
+      <c r="A152" s="12"/>
+      <c r="B152" s="15"/>
+      <c r="C152" s="15"/>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A153" s="3"/>
-      <c r="B153" s="9"/>
-      <c r="C153" s="9"/>
+      <c r="A153" s="12"/>
+      <c r="B153" s="15"/>
+      <c r="C153" s="15"/>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A154" s="3"/>
-      <c r="B154" s="9"/>
-      <c r="C154" s="9"/>
+      <c r="A154" s="12"/>
+      <c r="B154" s="15"/>
+      <c r="C154" s="15"/>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A155" s="3"/>
-      <c r="B155" s="9"/>
-      <c r="C155" s="9"/>
+      <c r="A155" s="12"/>
+      <c r="B155" s="15"/>
+      <c r="C155" s="15"/>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A156" s="3"/>
-      <c r="B156" s="9"/>
-      <c r="C156" s="9"/>
+      <c r="A156" s="12"/>
+      <c r="B156" s="15"/>
+      <c r="C156" s="15"/>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A157" s="3"/>
-      <c r="B157" s="9"/>
-      <c r="C157" s="9"/>
+      <c r="A157" s="12"/>
+      <c r="B157" s="15"/>
+      <c r="C157" s="15"/>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A158" s="3"/>
-      <c r="B158" s="9"/>
-      <c r="C158" s="9"/>
+      <c r="A158" s="12"/>
+      <c r="B158" s="15"/>
+      <c r="C158" s="15"/>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A159" s="3"/>
-      <c r="B159" s="9"/>
-      <c r="C159" s="9"/>
+      <c r="A159" s="12"/>
+      <c r="B159" s="15"/>
+      <c r="C159" s="15"/>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A160" s="3"/>
-      <c r="B160" s="9"/>
-      <c r="C160" s="9"/>
+      <c r="A160" s="12"/>
+      <c r="B160" s="15"/>
+      <c r="C160" s="15"/>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A161" s="3"/>
-      <c r="B161" s="9"/>
-      <c r="C161" s="9"/>
+      <c r="A161" s="12"/>
+      <c r="B161" s="15"/>
+      <c r="C161" s="15"/>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A162" s="3"/>
-      <c r="B162" s="9"/>
-      <c r="C162" s="9"/>
+      <c r="A162" s="12"/>
+      <c r="B162" s="15"/>
+      <c r="C162" s="15"/>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A163" s="3"/>
-      <c r="B163" s="9"/>
-      <c r="C163" s="9"/>
+      <c r="A163" s="12"/>
+      <c r="B163" s="15"/>
+      <c r="C163" s="15"/>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A164" s="3"/>
-      <c r="B164" s="9"/>
+      <c r="A164" s="12"/>
+      <c r="B164" s="15"/>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C166" s="9"/>
+      <c r="C166" s="15"/>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A167" s="3"/>
-      <c r="B167" s="9"/>
-      <c r="C167" s="9"/>
+      <c r="A167" s="12"/>
+      <c r="B167" s="15"/>
+      <c r="C167" s="15"/>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A168" s="3"/>
-      <c r="B168" s="9"/>
-      <c r="C168" s="9"/>
+      <c r="A168" s="12"/>
+      <c r="B168" s="15"/>
+      <c r="C168" s="15"/>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A169" s="3"/>
-      <c r="B169" s="9"/>
-      <c r="C169" s="9"/>
+      <c r="A169" s="12"/>
+      <c r="B169" s="15"/>
+      <c r="C169" s="15"/>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A170" s="3"/>
-      <c r="B170" s="9"/>
-      <c r="C170" s="9"/>
+      <c r="A170" s="12"/>
+      <c r="B170" s="15"/>
+      <c r="C170" s="15"/>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A171" s="3"/>
-      <c r="B171" s="9"/>
-      <c r="C171" s="9"/>
+      <c r="A171" s="12"/>
+      <c r="B171" s="15"/>
+      <c r="C171" s="15"/>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A172" s="3"/>
-      <c r="B172" s="9"/>
-      <c r="C172" s="9"/>
+      <c r="A172" s="12"/>
+      <c r="B172" s="15"/>
+      <c r="C172" s="15"/>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A173" s="3"/>
-      <c r="B173" s="9"/>
-      <c r="C173" s="9"/>
+      <c r="A173" s="12"/>
+      <c r="B173" s="15"/>
+      <c r="C173" s="15"/>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A174" s="3"/>
-      <c r="B174" s="9"/>
-      <c r="C174" s="9"/>
+      <c r="A174" s="12"/>
+      <c r="B174" s="15"/>
+      <c r="C174" s="15"/>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A175" s="3"/>
-      <c r="B175" s="9"/>
-      <c r="C175" s="9"/>
+      <c r="A175" s="12"/>
+      <c r="B175" s="15"/>
+      <c r="C175" s="15"/>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A176" s="3"/>
-      <c r="B176" s="9"/>
-      <c r="C176" s="9"/>
-      <c r="F176" s="9"/>
+      <c r="A176" s="12"/>
+      <c r="B176" s="15"/>
+      <c r="C176" s="15"/>
+      <c r="F176" s="15"/>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A177" s="3"/>
-      <c r="B177" s="9"/>
-      <c r="C177" s="9"/>
-      <c r="F177" s="9"/>
+      <c r="A177" s="12"/>
+      <c r="B177" s="15"/>
+      <c r="C177" s="15"/>
+      <c r="F177" s="15"/>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A178" s="3"/>
-      <c r="B178" s="9"/>
-      <c r="C178" s="9"/>
-      <c r="F178" s="9"/>
+      <c r="A178" s="12"/>
+      <c r="B178" s="15"/>
+      <c r="C178" s="15"/>
+      <c r="F178" s="15"/>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A179" s="3"/>
-      <c r="B179" s="9"/>
-      <c r="C179" s="9"/>
-      <c r="F179" s="9"/>
+      <c r="A179" s="12"/>
+      <c r="B179" s="15"/>
+      <c r="C179" s="15"/>
+      <c r="F179" s="15"/>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A180" s="3"/>
-      <c r="B180" s="9"/>
-      <c r="C180" s="9"/>
-      <c r="F180" s="9"/>
+      <c r="A180" s="12"/>
+      <c r="B180" s="15"/>
+      <c r="C180" s="15"/>
+      <c r="F180" s="15"/>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A181" s="3"/>
-      <c r="B181" s="9"/>
-      <c r="C181" s="9"/>
-      <c r="F181" s="9"/>
+      <c r="A181" s="12"/>
+      <c r="B181" s="15"/>
+      <c r="C181" s="15"/>
+      <c r="F181" s="15"/>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A182" s="3"/>
-      <c r="B182" s="9"/>
-      <c r="C182" s="9"/>
-      <c r="F182" s="9"/>
+      <c r="A182" s="12"/>
+      <c r="B182" s="15"/>
+      <c r="C182" s="15"/>
+      <c r="F182" s="15"/>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A183" s="3"/>
-      <c r="B183" s="9"/>
-      <c r="C183" s="9"/>
-      <c r="F183" s="9"/>
+      <c r="A183" s="12"/>
+      <c r="B183" s="15"/>
+      <c r="C183" s="15"/>
+      <c r="F183" s="15"/>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A184" s="3"/>
-      <c r="B184" s="9"/>
-      <c r="C184" s="9"/>
-      <c r="F184" s="9"/>
+      <c r="A184" s="12"/>
+      <c r="B184" s="15"/>
+      <c r="C184" s="15"/>
+      <c r="F184" s="15"/>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A185" s="3"/>
-      <c r="B185" s="9"/>
-      <c r="C185" s="9"/>
+      <c r="A185" s="12"/>
+      <c r="B185" s="15"/>
+      <c r="C185" s="15"/>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A186" s="3"/>
-      <c r="B186" s="9"/>
-      <c r="C186" s="9"/>
+      <c r="A186" s="12"/>
+      <c r="B186" s="15"/>
+      <c r="C186" s="15"/>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A187" s="3"/>
-      <c r="B187" s="9"/>
-      <c r="C187" s="9"/>
+      <c r="A187" s="12"/>
+      <c r="B187" s="15"/>
+      <c r="C187" s="15"/>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A188" s="3"/>
-      <c r="B188" s="9"/>
-      <c r="C188" s="9"/>
+      <c r="A188" s="12"/>
+      <c r="B188" s="15"/>
+      <c r="C188" s="15"/>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A189" s="3"/>
-      <c r="C189" s="9"/>
+      <c r="A189" s="12"/>
+      <c r="C189" s="15"/>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A190" s="3"/>
-      <c r="C190" s="9"/>
+      <c r="A190" s="12"/>
+      <c r="C190" s="15"/>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A191" s="3"/>
-      <c r="B191" s="9"/>
-      <c r="C191" s="9"/>
+      <c r="A191" s="12"/>
+      <c r="B191" s="15"/>
+      <c r="C191" s="15"/>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B192" s="9"/>
-      <c r="C192" s="9"/>
+      <c r="B192" s="15"/>
+      <c r="C192" s="15"/>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A193" s="3"/>
-      <c r="B193" s="9"/>
-      <c r="C193" s="9"/>
+      <c r="A193" s="12"/>
+      <c r="B193" s="15"/>
+      <c r="C193" s="15"/>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A194" s="3"/>
-      <c r="B194" s="9"/>
-      <c r="C194" s="9"/>
+      <c r="A194" s="12"/>
+      <c r="B194" s="15"/>
+      <c r="C194" s="15"/>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A195" s="3"/>
-      <c r="B195" s="9"/>
-      <c r="C195" s="9"/>
+      <c r="A195" s="12"/>
+      <c r="B195" s="15"/>
+      <c r="C195" s="15"/>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A196" s="3"/>
-      <c r="B196" s="9"/>
-      <c r="C196" s="9"/>
+      <c r="A196" s="12"/>
+      <c r="B196" s="15"/>
+      <c r="C196" s="15"/>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A197" s="3"/>
-      <c r="B197" s="9"/>
-      <c r="C197" s="9"/>
+      <c r="A197" s="12"/>
+      <c r="B197" s="15"/>
+      <c r="C197" s="15"/>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A198" s="3"/>
-      <c r="B198" s="9"/>
-      <c r="C198" s="9"/>
+      <c r="A198" s="12"/>
+      <c r="B198" s="15"/>
+      <c r="C198" s="15"/>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A199" s="3"/>
-      <c r="B199" s="9"/>
-      <c r="C199" s="9"/>
+      <c r="A199" s="12"/>
+      <c r="B199" s="15"/>
+      <c r="C199" s="15"/>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A200" s="3"/>
-      <c r="B200" s="9"/>
-      <c r="C200" s="9"/>
+      <c r="A200" s="12"/>
+      <c r="B200" s="15"/>
+      <c r="C200" s="15"/>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A201" s="3"/>
-      <c r="B201" s="9"/>
-      <c r="C201" s="9"/>
+      <c r="A201" s="12"/>
+      <c r="B201" s="15"/>
+      <c r="C201" s="15"/>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A202" s="3"/>
-      <c r="B202" s="9"/>
-      <c r="C202" s="9"/>
+      <c r="A202" s="12"/>
+      <c r="B202" s="15"/>
+      <c r="C202" s="15"/>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A203" s="3"/>
-      <c r="B203" s="9"/>
-      <c r="C203" s="9"/>
+      <c r="A203" s="12"/>
+      <c r="B203" s="15"/>
+      <c r="C203" s="15"/>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A204" s="3"/>
-      <c r="B204" s="9"/>
-      <c r="C204" s="9"/>
+      <c r="A204" s="12"/>
+      <c r="B204" s="15"/>
+      <c r="C204" s="15"/>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A205" s="3"/>
-      <c r="B205" s="9"/>
-      <c r="C205" s="9"/>
+      <c r="A205" s="12"/>
+      <c r="B205" s="15"/>
+      <c r="C205" s="15"/>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B206" s="9"/>
-      <c r="C206" s="9"/>
+      <c r="B206" s="15"/>
+      <c r="C206" s="15"/>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A207" s="3"/>
-      <c r="B207" s="9"/>
-      <c r="C207" s="9"/>
+      <c r="A207" s="12"/>
+      <c r="B207" s="15"/>
+      <c r="C207" s="15"/>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A208" s="3"/>
-      <c r="B208" s="9"/>
-      <c r="C208" s="9"/>
+      <c r="A208" s="12"/>
+      <c r="B208" s="15"/>
+      <c r="C208" s="15"/>
     </row>
     <row r="209" spans="1:3" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A209" s="3"/>
-      <c r="B209" s="9"/>
-      <c r="C209" s="9"/>
+      <c r="A209" s="12"/>
+      <c r="B209" s="15"/>
+      <c r="C209" s="15"/>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A210" s="3"/>
-      <c r="C210" s="9"/>
+      <c r="A210" s="12"/>
+      <c r="C210" s="15"/>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A211" s="3"/>
-      <c r="B211" s="9"/>
-      <c r="C211" s="9"/>
+      <c r="A211" s="12"/>
+      <c r="B211" s="15"/>
+      <c r="C211" s="15"/>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A212" s="3"/>
-      <c r="B212" s="9"/>
-      <c r="C212" s="9"/>
+      <c r="A212" s="12"/>
+      <c r="B212" s="15"/>
+      <c r="C212" s="15"/>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A213" s="3"/>
-      <c r="B213" s="9"/>
-      <c r="C213" s="9"/>
+      <c r="A213" s="12"/>
+      <c r="B213" s="15"/>
+      <c r="C213" s="15"/>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A214" s="3"/>
-      <c r="B214" s="9"/>
-      <c r="C214" s="9"/>
+      <c r="A214" s="12"/>
+      <c r="B214" s="15"/>
+      <c r="C214" s="15"/>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A215" s="3"/>
-      <c r="B215" s="9"/>
-      <c r="C215" s="9"/>
+      <c r="A215" s="12"/>
+      <c r="B215" s="15"/>
+      <c r="C215" s="15"/>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B216" s="9"/>
-      <c r="C216" s="9"/>
+      <c r="B216" s="15"/>
+      <c r="C216" s="15"/>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A217" s="3"/>
-      <c r="B217" s="9"/>
-      <c r="C217" s="9"/>
+      <c r="A217" s="12"/>
+      <c r="B217" s="15"/>
+      <c r="C217" s="15"/>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A218" s="3"/>
-      <c r="B218" s="9"/>
-      <c r="C218" s="9"/>
+      <c r="A218" s="12"/>
+      <c r="B218" s="15"/>
+      <c r="C218" s="15"/>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A219" s="3"/>
-      <c r="B219" s="9"/>
-      <c r="C219" s="9"/>
+      <c r="A219" s="12"/>
+      <c r="B219" s="15"/>
+      <c r="C219" s="15"/>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A220" s="3"/>
-      <c r="C220" s="9"/>
+      <c r="A220" s="12"/>
+      <c r="C220" s="15"/>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A221" s="3"/>
-      <c r="C221" s="9"/>
+      <c r="A221" s="12"/>
+      <c r="C221" s="15"/>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A222" s="3"/>
-      <c r="C222" s="9"/>
+      <c r="A222" s="12"/>
+      <c r="C222" s="15"/>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A223" s="3"/>
-      <c r="C223" s="9"/>
+      <c r="A223" s="12"/>
+      <c r="C223" s="15"/>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A224" s="3"/>
-      <c r="C224" s="9"/>
+      <c r="A224" s="12"/>
+      <c r="C224" s="15"/>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A225" s="3"/>
-      <c r="C225" s="9"/>
+      <c r="A225" s="12"/>
+      <c r="C225" s="15"/>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A226" s="3"/>
-      <c r="C226" s="9"/>
+      <c r="A226" s="12"/>
+      <c r="C226" s="15"/>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A227" s="3"/>
-      <c r="C227" s="9"/>
+      <c r="A227" s="12"/>
+      <c r="C227" s="15"/>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A228" s="3"/>
-      <c r="C228" s="9"/>
+      <c r="A228" s="12"/>
+      <c r="C228" s="15"/>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A229" s="3"/>
-      <c r="C229" s="9"/>
+      <c r="A229" s="12"/>
+      <c r="C229" s="15"/>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A230" s="3"/>
-      <c r="C230" s="9"/>
+      <c r="A230" s="12"/>
+      <c r="C230" s="15"/>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A231" s="3"/>
-      <c r="C231" s="9"/>
+      <c r="A231" s="12"/>
+      <c r="C231" s="15"/>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A232" s="3"/>
-      <c r="C232" s="9"/>
+      <c r="A232" s="12"/>
+      <c r="C232" s="15"/>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A233" s="3"/>
-      <c r="C233" s="9"/>
+      <c r="A233" s="12"/>
+      <c r="C233" s="15"/>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A234" s="3"/>
-      <c r="C234" s="9"/>
+      <c r="A234" s="12"/>
+      <c r="C234" s="15"/>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A235" s="3"/>
-      <c r="C235" s="9"/>
+      <c r="A235" s="12"/>
+      <c r="C235" s="15"/>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C236" s="9"/>
+      <c r="C236" s="15"/>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A237" s="3"/>
-      <c r="C237" s="9"/>
+      <c r="A237" s="12"/>
+      <c r="C237" s="15"/>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A238" s="3"/>
-      <c r="C238" s="9"/>
+      <c r="A238" s="12"/>
+      <c r="C238" s="15"/>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A239" s="3"/>
-      <c r="C239" s="9"/>
+      <c r="A239" s="12"/>
+      <c r="C239" s="15"/>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A240" s="3"/>
-      <c r="C240" s="9"/>
+      <c r="A240" s="12"/>
+      <c r="C240" s="15"/>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A241" s="3"/>
-      <c r="C241" s="9"/>
+      <c r="A241" s="12"/>
+      <c r="C241" s="15"/>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A242" s="3"/>
-      <c r="C242" s="9"/>
+      <c r="A242" s="12"/>
+      <c r="C242" s="15"/>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A243" s="3"/>
-      <c r="C243" s="9"/>
+      <c r="A243" s="12"/>
+      <c r="C243" s="15"/>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A244" s="3"/>
-      <c r="C244" s="9"/>
+      <c r="A244" s="12"/>
+      <c r="C244" s="15"/>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A245" s="3"/>
-      <c r="C245" s="9"/>
+      <c r="A245" s="12"/>
+      <c r="C245" s="15"/>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C246" s="9"/>
+      <c r="C246" s="15"/>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A247" s="3"/>
-      <c r="C247" s="9"/>
+      <c r="A247" s="12"/>
+      <c r="C247" s="15"/>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A248" s="3"/>
-      <c r="C248" s="9"/>
+      <c r="A248" s="12"/>
+      <c r="C248" s="15"/>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A249" s="3"/>
-      <c r="C249" s="9"/>
+      <c r="A249" s="12"/>
+      <c r="C249" s="15"/>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A250" s="3"/>
-      <c r="C250" s="9"/>
+      <c r="A250" s="12"/>
+      <c r="C250" s="15"/>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A251" s="3"/>
-      <c r="C251" s="9"/>
+      <c r="A251" s="12"/>
+      <c r="C251" s="15"/>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A252" s="3"/>
-      <c r="C252" s="9"/>
+      <c r="A252" s="12"/>
+      <c r="C252" s="15"/>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A253" s="3"/>
-      <c r="C253" s="9"/>
+      <c r="A253" s="12"/>
+      <c r="C253" s="15"/>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A254" s="3"/>
-      <c r="C254" s="9"/>
+      <c r="A254" s="12"/>
+      <c r="C254" s="15"/>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A255" s="3"/>
-      <c r="C255" s="9"/>
+      <c r="A255" s="12"/>
+      <c r="C255" s="15"/>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A256" s="3"/>
-      <c r="C256" s="9"/>
+      <c r="A256" s="12"/>
+      <c r="C256" s="15"/>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A257" s="3"/>
-      <c r="C257" s="9"/>
+      <c r="A257" s="12"/>
+      <c r="C257" s="15"/>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A258" s="3"/>
-      <c r="C258" s="9"/>
+      <c r="A258" s="12"/>
+      <c r="C258" s="15"/>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A259" s="3"/>
-      <c r="C259" s="9"/>
+      <c r="A259" s="12"/>
+      <c r="C259" s="15"/>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A260" s="3"/>
-      <c r="C260" s="9"/>
+      <c r="A260" s="12"/>
+      <c r="C260" s="15"/>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A261" s="3"/>
-      <c r="C261" s="9"/>
+      <c r="A261" s="12"/>
+      <c r="C261" s="15"/>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A262" s="3"/>
-      <c r="C262" s="9"/>
+      <c r="A262" s="12"/>
+      <c r="C262" s="15"/>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A263" s="3"/>
-      <c r="C263" s="9"/>
+      <c r="A263" s="12"/>
+      <c r="C263" s="15"/>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A264" s="3"/>
-      <c r="C264" s="9"/>
+      <c r="A264" s="12"/>
+      <c r="C264" s="15"/>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A265" s="3"/>
-      <c r="C265" s="9"/>
+      <c r="A265" s="12"/>
+      <c r="C265" s="15"/>
     </row>
     <row r="266" spans="1:3" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C266" s="9"/>
+      <c r="C266" s="15"/>
     </row>
     <row r="267" spans="1:3" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A267" s="3"/>
-      <c r="C267" s="9"/>
+      <c r="A267" s="12"/>
+      <c r="C267" s="15"/>
     </row>
     <row r="268" spans="1:3" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A268" s="3"/>
-      <c r="C268" s="9"/>
+      <c r="A268" s="12"/>
+      <c r="C268" s="15"/>
     </row>
     <row r="269" spans="1:3" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A269" s="3"/>
-      <c r="C269" s="9"/>
+      <c r="A269" s="12"/>
+      <c r="C269" s="15"/>
     </row>
     <row r="270" spans="1:3" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A270" s="3"/>
-      <c r="C270" s="9"/>
+      <c r="A270" s="12"/>
+      <c r="C270" s="15"/>
     </row>
     <row r="271" spans="1:3" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A271" s="3"/>
-      <c r="C271" s="9"/>
+      <c r="A271" s="12"/>
+      <c r="C271" s="15"/>
     </row>
     <row r="272" spans="1:3" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A272" s="3"/>
-      <c r="C272" s="9"/>
+      <c r="A272" s="12"/>
+      <c r="C272" s="15"/>
     </row>
     <row r="273" spans="1:3" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A273" s="3"/>
-      <c r="C273" s="9"/>
+      <c r="A273" s="12"/>
+      <c r="C273" s="15"/>
     </row>
     <row r="274" spans="1:3" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A274" s="3"/>
-      <c r="C274" s="9"/>
+      <c r="A274" s="12"/>
+      <c r="C274" s="15"/>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A275" s="3"/>
-      <c r="C275" s="9"/>
+      <c r="A275" s="12"/>
+      <c r="C275" s="15"/>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C276" s="9"/>
+      <c r="C276" s="15"/>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A277" s="3"/>
-      <c r="C277" s="9"/>
+      <c r="A277" s="12"/>
+      <c r="C277" s="15"/>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A278" s="3"/>
-      <c r="C278" s="9"/>
+      <c r="A278" s="12"/>
+      <c r="C278" s="15"/>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A279" s="3"/>
-      <c r="C279" s="9"/>
+      <c r="A279" s="12"/>
+      <c r="C279" s="15"/>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A280" s="3"/>
-      <c r="C280" s="9"/>
+      <c r="A280" s="12"/>
+      <c r="C280" s="15"/>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A281" s="3"/>
-      <c r="C281" s="9"/>
+      <c r="A281" s="12"/>
+      <c r="C281" s="15"/>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A282" s="3"/>
-      <c r="C282" s="9"/>
+      <c r="A282" s="12"/>
+      <c r="C282" s="15"/>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A283" s="3"/>
-      <c r="C283" s="9"/>
+      <c r="A283" s="12"/>
+      <c r="C283" s="15"/>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A284" s="3"/>
-      <c r="C284" s="9"/>
+      <c r="A284" s="12"/>
+      <c r="C284" s="15"/>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A285" s="3"/>
-      <c r="C285" s="9"/>
+      <c r="A285" s="12"/>
+      <c r="C285" s="15"/>
     </row>
     <row r="286" spans="1:3" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A286" s="3"/>
-      <c r="C286" s="9"/>
+      <c r="A286" s="12"/>
+      <c r="C286" s="15"/>
     </row>
     <row r="287" spans="1:3" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A287" s="3"/>
-      <c r="C287" s="9"/>
+      <c r="A287" s="12"/>
+      <c r="C287" s="15"/>
     </row>
     <row r="288" spans="1:3" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A288" s="3"/>
-      <c r="C288" s="9"/>
+      <c r="A288" s="12"/>
+      <c r="C288" s="15"/>
     </row>
     <row r="289" spans="1:3" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A289" s="3"/>
-      <c r="C289" s="9"/>
+      <c r="A289" s="12"/>
+      <c r="C289" s="15"/>
     </row>
     <row r="290" spans="1:3" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A290" s="3"/>
-      <c r="C290" s="9"/>
+      <c r="A290" s="12"/>
+      <c r="C290" s="15"/>
     </row>
     <row r="291" spans="1:3" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A291" s="3"/>
-      <c r="C291" s="9"/>
+      <c r="A291" s="12"/>
+      <c r="C291" s="15"/>
     </row>
     <row r="292" spans="1:3" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A292" s="3"/>
-      <c r="C292" s="9"/>
+      <c r="A292" s="12"/>
+      <c r="C292" s="15"/>
     </row>
     <row r="293" spans="1:3" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A293" s="3"/>
-      <c r="C293" s="9"/>
+      <c r="A293" s="12"/>
+      <c r="C293" s="15"/>
     </row>
     <row r="294" spans="1:3" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A294" s="3"/>
-      <c r="C294" s="9"/>
+      <c r="A294" s="12"/>
+      <c r="C294" s="15"/>
     </row>
     <row r="295" spans="1:3" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A295" s="3"/>
-      <c r="C295" s="9"/>
+      <c r="A295" s="12"/>
+      <c r="C295" s="15"/>
     </row>
     <row r="296" spans="1:3" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A296" s="3"/>
-      <c r="C296" s="9"/>
+      <c r="A296" s="12"/>
+      <c r="C296" s="15"/>
     </row>
     <row r="297" spans="1:3" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A297" s="3"/>
-      <c r="C297" s="9"/>
+      <c r="A297" s="12"/>
+      <c r="C297" s="15"/>
     </row>
     <row r="298" spans="1:3" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A298" s="3"/>
-      <c r="C298" s="9"/>
+      <c r="A298" s="12"/>
+      <c r="C298" s="15"/>
     </row>
     <row r="299" spans="1:3" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A299" s="3"/>
-      <c r="C299" s="9"/>
+      <c r="A299" s="12"/>
+      <c r="C299" s="15"/>
     </row>
     <row r="300" spans="1:3" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A300" s="3"/>
-      <c r="C300" s="9"/>
+      <c r="A300" s="12"/>
+      <c r="C300" s="15"/>
     </row>
     <row r="301" spans="1:3" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A301" s="3"/>
-      <c r="C301" s="9"/>
+      <c r="A301" s="12"/>
+      <c r="C301" s="15"/>
     </row>
     <row r="302" spans="1:3" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A302" s="3"/>
-      <c r="C302" s="9"/>
+      <c r="A302" s="12"/>
+      <c r="C302" s="15"/>
     </row>
     <row r="303" spans="1:3" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A303" s="3"/>
-      <c r="C303" s="9"/>
+      <c r="A303" s="12"/>
+      <c r="C303" s="15"/>
     </row>
     <row r="304" spans="1:3" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A304" s="3"/>
-      <c r="C304" s="9"/>
+      <c r="A304" s="12"/>
+      <c r="C304" s="15"/>
     </row>
     <row r="305" spans="1:5" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A305" s="3"/>
-      <c r="C305" s="9"/>
+      <c r="A305" s="12"/>
+      <c r="C305" s="15"/>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A306" s="3"/>
-      <c r="C306" s="9"/>
+      <c r="A306" s="12"/>
+      <c r="C306" s="15"/>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A307" s="3"/>
-      <c r="C307" s="9"/>
+      <c r="A307" s="12"/>
+      <c r="C307" s="15"/>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A308" s="3"/>
-      <c r="C308" s="9"/>
+      <c r="A308" s="12"/>
+      <c r="C308" s="15"/>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C309" s="9"/>
+      <c r="C309" s="15"/>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C310" s="9"/>
-    </row>
-    <row r="314" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C310" s="15"/>
+    </row>
+    <row r="314" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B314" s="8"/>
       <c r="D314" s="8"/>
       <c r="E314" s="8"/>
     </row>
-    <row r="315" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B315" s="8"/>
       <c r="D315" s="8"/>
       <c r="E315" s="8"/>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A317" s="3"/>
+      <c r="A317" s="12"/>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A318" s="3"/>
+      <c r="A318" s="12"/>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A319" s="3"/>
+      <c r="A319" s="12"/>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A320" s="3"/>
+      <c r="A320" s="12"/>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A321" s="3"/>
-      <c r="C321" s="9"/>
+      <c r="A321" s="12"/>
+      <c r="C321" s="15"/>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C322" s="9"/>
+      <c r="C322" s="15"/>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C323" s="9"/>
+      <c r="C323" s="15"/>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C324" s="9"/>
+      <c r="C324" s="15"/>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C325" s="9"/>
+      <c r="C325" s="15"/>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C326" s="9"/>
+      <c r="C326" s="15"/>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C327" s="9"/>
+      <c r="C327" s="15"/>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C328" s="9"/>
+      <c r="C328" s="15"/>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C329" s="9"/>
+      <c r="C329" s="15"/>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C330" s="9"/>
+      <c r="C330" s="15"/>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C331" s="9"/>
+      <c r="C331" s="15"/>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C332" s="9"/>
+      <c r="C332" s="15"/>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C333" s="9"/>
+      <c r="C333" s="15"/>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C334" s="9"/>
+      <c r="C334" s="15"/>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A335" s="3"/>
-      <c r="B335" s="9"/>
+      <c r="A335" s="12"/>
+      <c r="B335" s="15"/>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A336" s="3"/>
+      <c r="A336" s="12"/>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A337" s="3"/>
+      <c r="A337" s="12"/>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C339" s="9"/>
+      <c r="C339" s="15"/>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A340" s="3"/>
-      <c r="C340" s="9"/>
+      <c r="A340" s="12"/>
+      <c r="C340" s="15"/>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A341" s="3"/>
-      <c r="C341" s="9"/>
+      <c r="A341" s="12"/>
+      <c r="C341" s="15"/>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A342" s="3"/>
+      <c r="A342" s="12"/>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A343" s="3"/>
+      <c r="A343" s="12"/>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A344" s="3"/>
+      <c r="A344" s="12"/>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A345" s="3"/>
+      <c r="A345" s="12"/>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C346" s="9"/>
+      <c r="C346" s="15"/>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A347" s="3"/>
+      <c r="A347" s="12"/>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A348" s="3"/>
+      <c r="A348" s="12"/>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A349" s="3"/>
+      <c r="A349" s="12"/>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A350" s="3"/>
+      <c r="A350" s="12"/>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A351" s="3"/>
+      <c r="A351" s="12"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F381" xr:uid="{331C1EDC-16F4-4062-B315-4F977B891E3D}"/>
@@ -4533,9 +4537,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD067F45-44FB-411F-AA39-134069E9E2E8}">
-  <dimension ref="A1:K261"/>
+  <dimension ref="A1:P261"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4543,15 +4547,15 @@
     <col min="2" max="2" width="24.44140625" style="2" customWidth="1"/>
     <col min="3" max="3" width="29.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="10" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" style="8" customWidth="1"/>
-    <col min="9" max="9" width="11" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.44140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="8"/>
+    <col min="5" max="7" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" style="7" customWidth="1"/>
+    <col min="9" max="9" width="11" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -4562,1259 +4566,1626 @@
         <v>3</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>290</v>
-      </c>
       <c r="I1" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="8" t="s">
+      <c r="C2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="K2" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="H3" s="8" t="s">
+      <c r="C3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>273</v>
       </c>
+      <c r="H3" s="7" t="s">
+        <v>271</v>
+      </c>
       <c r="I3" s="6" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>275</v>
+      <c r="C4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>273</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="8" t="s">
+      <c r="B6" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="K6" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="K7" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="K13" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="I32" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="J32" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="K32" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="H5" t="s">
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="I33" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="J33" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="K33" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="G34" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="I5" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="K5" s="6" t="s">
+      <c r="H34" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="I34" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="J34" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="8"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="I35" s="10" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="H6" t="s">
-        <v>273</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="H7" t="s">
-        <v>273</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="H8" t="s">
-        <v>273</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="H9" t="s">
-        <v>273</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="H10" t="s">
-        <v>273</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="J10" s="6" t="s">
+      <c r="J35" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="K35" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="K10" s="6" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="H11" t="s">
-        <v>273</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="H12" t="s">
-        <v>273</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="K12" s="11"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="H13" t="s">
-        <v>273</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="K16" s="6" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="K18" s="6" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="I20" s="10" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="I21" s="10" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="I22" s="10" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="I23" s="10" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="I24" s="10" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="I25" s="10" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="I26" s="10" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="I27" s="10" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="I28" s="10" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="I29" s="10" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="G30" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="I30" s="10" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="I31" s="10" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="G32" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="I32" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="J32" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="K32" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="I33" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="J33" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="K33" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="G34" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="I34" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="J34" s="6" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="I35" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="J35" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="K35" s="6" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D36" s="11"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="8"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D37" s="12"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
+      <c r="O37" s="8"/>
+      <c r="P37" s="8"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="5"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D38" s="12"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="8"/>
+      <c r="P38" s="8"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D39" s="12"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="8"/>
+      <c r="P39" s="8"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D40" s="11"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="8"/>
+      <c r="N40" s="8"/>
+      <c r="O40" s="8"/>
+      <c r="P40" s="8"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D41" s="11"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="8"/>
+      <c r="N41" s="8"/>
+      <c r="O41" s="8"/>
+      <c r="P41" s="8"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D42" s="11"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="8"/>
+      <c r="N42" s="8"/>
+      <c r="O42" s="8"/>
+      <c r="P42" s="8"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D43" s="11"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="8"/>
+      <c r="O43" s="8"/>
+      <c r="P43" s="8"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D44" s="12"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="8"/>
+      <c r="N44" s="8"/>
+      <c r="O44" s="8"/>
+      <c r="P44" s="8"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D45" s="12"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="8"/>
+      <c r="N45" s="8"/>
+      <c r="O45" s="8"/>
+      <c r="P45" s="8"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D46" s="12"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="8"/>
+      <c r="N46" s="8"/>
+      <c r="O46" s="8"/>
+      <c r="P46" s="8"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D47" s="12"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="8"/>
+      <c r="M47" s="8"/>
+      <c r="N47" s="8"/>
+      <c r="O47" s="8"/>
+      <c r="P47" s="8"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D48" s="12"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="8"/>
+      <c r="M48" s="8"/>
+      <c r="N48" s="8"/>
+      <c r="O48" s="8"/>
+      <c r="P48" s="8"/>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D49" s="12"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="8"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="8"/>
+      <c r="N49" s="8"/>
+      <c r="O49" s="8"/>
+      <c r="P49" s="8"/>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -6508,6 +6879,28 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="d045ab76-3bb7-45f5-ab41-d7b04aa0dc94" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="4e95bed8-6d15-4403-ad70-a53422338dca">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C4EA295FB1FB9547A73C9F5819D6E613" ma:contentTypeVersion="18" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="28eb2357e4224e96db2ca2d9fdff096e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="4e95bed8-6d15-4403-ad70-a53422338dca" xmlns:ns3="10d3344f-2d16-43d9-a145-97142f5cb288" xmlns:ns4="d045ab76-3bb7-45f5-ab41-d7b04aa0dc94" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="22228b78e9367ad139f599631bc89b0b" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -6772,29 +7165,29 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="d045ab76-3bb7-45f5-ab41-d7b04aa0dc94" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="4e95bed8-6d15-4403-ad70-a53422338dca">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A5777A3F-D469-4347-9CB8-95F53B1F85D6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C22B2F2B-FDE6-48F3-8A60-A65BE7C52F0B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="9c2910e3-625d-4012-8056-81ea95a8d605"/>
+    <ds:schemaRef ds:uri="aff6d44e-ba2a-4228-961e-5f8ded2976ff"/>
+    <ds:schemaRef ds:uri="d045ab76-3bb7-45f5-ab41-d7b04aa0dc94"/>
+    <ds:schemaRef ds:uri="4e95bed8-6d15-4403-ad70-a53422338dca"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7995229D-1DF8-4D11-800A-01B880DA9ABF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6815,28 +7208,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C22B2F2B-FDE6-48F3-8A60-A65BE7C52F0B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="9c2910e3-625d-4012-8056-81ea95a8d605"/>
-    <ds:schemaRef ds:uri="aff6d44e-ba2a-4228-961e-5f8ded2976ff"/>
-    <ds:schemaRef ds:uri="d045ab76-3bb7-45f5-ab41-d7b04aa0dc94"/>
-    <ds:schemaRef ds:uri="4e95bed8-6d15-4403-ad70-a53422338dca"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A5777A3F-D469-4347-9CB8-95F53B1F85D6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{f03e95be-f593-41dc-b647-f46fbd6a5fa3}" enabled="1" method="Standard" siteId="{8c653938-6726-49c5-bca7-8e44a4bf2029}" removed="0"/>

--- a/Indicatoren overzicht.xlsx
+++ b/Indicatoren overzicht.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vrln.sharepoint.com/sites/GGD-ONDZ/PSchijf/Gezondheidsmonitor/2022 Gezondheidsmonitor volwassenen en ouderen/5. Eindproducten/Rapportage concept/Test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vrln.sharepoint.com/sites/GGD-ONDZ/PSchijf/Gezondheidsmonitor/Algemeen/Automatisering en R/Github/Rapportage VO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="173" documentId="8_{C52811AC-DC11-46F3-A790-C5C8DD7C8C21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9350A00-73DE-4CA3-A832-97DC1E7BBD93}"/>
+  <xr:revisionPtr revIDLastSave="174" documentId="8_{C52811AC-DC11-46F3-A790-C5C8DD7C8C21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F18C569-67B0-4412-AE66-4D6BA2B46B67}"/>
   <bookViews>
-    <workbookView xWindow="-4890" yWindow="-21720" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{A66E39A1-F740-4BF0-A7D7-3D3D64DB8620}"/>
+    <workbookView xWindow="-4890" yWindow="-21720" windowWidth="38640" windowHeight="21240" xr2:uid="{A66E39A1-F740-4BF0-A7D7-3D3D64DB8620}"/>
   </bookViews>
   <sheets>
     <sheet name="indicatoren" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">indicatoren!$A$1:$G$351</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'indicatoren trends'!$A$1:$H$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'indicatoren trends'!$A$1:$H$34</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="286">
   <si>
     <t>omschrijving</t>
   </si>
@@ -1355,7 +1355,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49BE1902-5125-4307-BBEF-8C1A2A14B30B}">
   <dimension ref="A1:I285"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -4088,9 +4088,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD067F45-44FB-411F-AA39-134069E9E2E8}">
-  <dimension ref="A1:M35"/>
+  <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4771,10 +4771,10 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C24" s="11">
         <v>0</v>
@@ -4798,10 +4798,10 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C25" s="11">
         <v>0</v>
@@ -4825,10 +4825,10 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C26" s="11">
         <v>0</v>
@@ -4852,10 +4852,10 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C27" s="11">
         <v>0</v>
@@ -4879,10 +4879,10 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C28" s="11">
         <v>0</v>
@@ -4906,10 +4906,10 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C29" s="11">
         <v>0</v>
@@ -4933,10 +4933,10 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C30" s="11">
         <v>0</v>
@@ -4960,10 +4960,10 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="C31" s="11">
         <v>0</v>
@@ -4971,14 +4971,18 @@
       <c r="D31" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
+      <c r="E31" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>267</v>
+      </c>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
@@ -4987,10 +4991,10 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C32" s="11">
         <v>0</v>
@@ -4998,8 +5002,8 @@
       <c r="D32" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E32" s="9" t="s">
-        <v>266</v>
+      <c r="E32" s="1" t="s">
+        <v>270</v>
       </c>
       <c r="F32" s="9" t="s">
         <v>266</v>
@@ -5018,10 +5022,10 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C33" s="11">
         <v>0</v>
@@ -5033,14 +5037,12 @@
         <v>270</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="H33" s="9" t="s">
-        <v>267</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
@@ -5049,10 +5051,10 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C34" s="11">
         <v>0</v>
@@ -5064,63 +5066,38 @@
         <v>270</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="G34" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="H34" s="2"/>
+      <c r="H34" s="9" t="s">
+        <v>272</v>
+      </c>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="C35" s="11">
-        <v>0</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="G35" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="H35" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:H35" xr:uid="{FD067F45-44FB-411F-AA39-134069E9E2E8}"/>
+  <autoFilter ref="A1:H34" xr:uid="{FD067F45-44FB-411F-AA39-134069E9E2E8}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="d045ab76-3bb7-45f5-ab41-d7b04aa0dc94" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="4e95bed8-6d15-4403-ad70-a53422338dca">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5389,22 +5366,24 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="d045ab76-3bb7-45f5-ab41-d7b04aa0dc94" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="4e95bed8-6d15-4403-ad70-a53422338dca">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A5777A3F-D469-4347-9CB8-95F53B1F85D6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C22B2F2B-FDE6-48F3-8A60-A65BE7C52F0B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="9c2910e3-625d-4012-8056-81ea95a8d605"/>
+    <ds:schemaRef ds:uri="aff6d44e-ba2a-4228-961e-5f8ded2976ff"/>
+    <ds:schemaRef ds:uri="d045ab76-3bb7-45f5-ab41-d7b04aa0dc94"/>
+    <ds:schemaRef ds:uri="4e95bed8-6d15-4403-ad70-a53422338dca"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5431,15 +5410,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C22B2F2B-FDE6-48F3-8A60-A65BE7C52F0B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A5777A3F-D469-4347-9CB8-95F53B1F85D6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="9c2910e3-625d-4012-8056-81ea95a8d605"/>
-    <ds:schemaRef ds:uri="aff6d44e-ba2a-4228-961e-5f8ded2976ff"/>
-    <ds:schemaRef ds:uri="d045ab76-3bb7-45f5-ab41-d7b04aa0dc94"/>
-    <ds:schemaRef ds:uri="4e95bed8-6d15-4403-ad70-a53422338dca"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Indicatoren overzicht.xlsx
+++ b/Indicatoren overzicht.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ggdghornederland.sharepoint.com/sites/tss_Monitors/Gedeelde documenten/10 c. Gezondheidsmonitor V&amp;O 2022/Rapportage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{DEB03A13-21E9-491B-BAC1-441CEE05A0AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{576EDEF4-C9DC-4B86-BA0B-19BC6BCE7504}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{DEB03A13-21E9-491B-BAC1-441CEE05A0AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{965E1E25-D57E-4EAE-A8D6-C7FECA882753}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A66E39A1-F740-4BF0-A7D7-3D3D64DB8620}"/>
   </bookViews>
@@ -4089,7 +4089,7 @@
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4843,8 +4843,8 @@
       <c r="D32" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>270</v>
+      <c r="E32" s="14" t="s">
+        <v>266</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>266</v>
@@ -4924,6 +4924,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010051EADF00008FE940B6D6113F52FEFE07" ma:contentTypeVersion="15" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="de54f9bfbc872adfb1e45e58ab594378">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="aff6d44e-ba2a-4228-961e-5f8ded2976ff" xmlns:ns3="9c2910e3-625d-4012-8056-81ea95a8d605" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b24c634e1a4a376b30a44f03332f2b69" ns2:_="" ns3:_="">
     <xsd:import namespace="aff6d44e-ba2a-4228-961e-5f8ded2976ff"/>
@@ -5160,15 +5169,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C22B2F2B-FDE6-48F3-8A60-A65BE7C52F0B}">
   <ds:schemaRefs>
@@ -5184,6 +5184,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A5777A3F-D469-4347-9CB8-95F53B1F85D6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFF368E8-6101-49BD-B6FD-0D442EE03BAB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5202,14 +5210,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A5777A3F-D469-4347-9CB8-95F53B1F85D6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{f03e95be-f593-41dc-b647-f46fbd6a5fa3}" enabled="1" method="Standard" siteId="{8c653938-6726-49c5-bca7-8e44a4bf2029}" removed="0"/>

--- a/Indicatoren overzicht.xlsx
+++ b/Indicatoren overzicht.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ggdghornederland.sharepoint.com/sites/tss_Monitors/Gedeelde documenten/10 c. Gezondheidsmonitor V&amp;O 2022/Rapportage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{DEB03A13-21E9-491B-BAC1-441CEE05A0AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{965E1E25-D57E-4EAE-A8D6-C7FECA882753}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{DEB03A13-21E9-491B-BAC1-441CEE05A0AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{667CB306-1BFB-4226-9496-C63EA32880BE}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A66E39A1-F740-4BF0-A7D7-3D3D64DB8620}"/>
   </bookViews>
@@ -986,7 +986,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1032,6 +1032,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -4088,8 +4091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD067F45-44FB-411F-AA39-134069E9E2E8}">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4880,7 +4883,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="16" t="s">
         <v>242</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -4913,26 +4916,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="9c2910e3-625d-4012-8056-81ea95a8d605" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="aff6d44e-ba2a-4228-961e-5f8ded2976ff">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010051EADF00008FE940B6D6113F52FEFE07" ma:contentTypeVersion="15" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="de54f9bfbc872adfb1e45e58ab594378">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="aff6d44e-ba2a-4228-961e-5f8ded2976ff" xmlns:ns3="9c2910e3-625d-4012-8056-81ea95a8d605" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b24c634e1a4a376b30a44f03332f2b69" ns2:_="" ns3:_="">
     <xsd:import namespace="aff6d44e-ba2a-4228-961e-5f8ded2976ff"/>
@@ -5169,29 +5152,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C22B2F2B-FDE6-48F3-8A60-A65BE7C52F0B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="9c2910e3-625d-4012-8056-81ea95a8d605"/>
-    <ds:schemaRef ds:uri="aff6d44e-ba2a-4228-961e-5f8ded2976ff"/>
-    <ds:schemaRef ds:uri="d045ab76-3bb7-45f5-ab41-d7b04aa0dc94"/>
-    <ds:schemaRef ds:uri="4e95bed8-6d15-4403-ad70-a53422338dca"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A5777A3F-D469-4347-9CB8-95F53B1F85D6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="9c2910e3-625d-4012-8056-81ea95a8d605" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="aff6d44e-ba2a-4228-961e-5f8ded2976ff">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFF368E8-6101-49BD-B6FD-0D442EE03BAB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5210,6 +5191,28 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A5777A3F-D469-4347-9CB8-95F53B1F85D6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C22B2F2B-FDE6-48F3-8A60-A65BE7C52F0B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="9c2910e3-625d-4012-8056-81ea95a8d605"/>
+    <ds:schemaRef ds:uri="aff6d44e-ba2a-4228-961e-5f8ded2976ff"/>
+    <ds:schemaRef ds:uri="d045ab76-3bb7-45f5-ab41-d7b04aa0dc94"/>
+    <ds:schemaRef ds:uri="4e95bed8-6d15-4403-ad70-a53422338dca"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{f03e95be-f593-41dc-b647-f46fbd6a5fa3}" enabled="1" method="Standard" siteId="{8c653938-6726-49c5-bca7-8e44a4bf2029}" removed="0"/>
